--- a/data/trans_camb/P05B_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P05B_R-Dificultad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-4.394825020067739</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-3.477055267755541</v>
+        <v>-3.47705526775554</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.165171280929803</v>
+        <v>-2.991644994664514</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.606993807869211</v>
+        <v>-3.865105686432092</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.13161479885109</v>
+        <v>-3.144499563350298</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.776553440887052</v>
+        <v>-7.954274402877552</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-8.082402758026035</v>
+        <v>-8.098640019355205</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-7.107307500845693</v>
+        <v>-7.39643593563446</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-5.298545235676403</v>
+        <v>-5.252723273646375</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.929256926069195</v>
+        <v>-5.974348469660744</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.989770163120884</v>
+        <v>-4.927098028629834</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6130770035409208</v>
+        <v>0.9682408653156029</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.004507109830260907</v>
+        <v>-0.1215620036315387</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.353188670822288</v>
+        <v>1.402875519376017</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-3.8421457891734</v>
+        <v>-3.652388178441255</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-4.233833311114115</v>
+        <v>-4.234568866874286</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-2.916252378387795</v>
+        <v>-3.052425235899136</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-2.433548882651802</v>
+        <v>-2.381300272737111</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-3.021260541633087</v>
+        <v>-3.060398585495278</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-1.663924392400738</v>
+        <v>-1.780593934577942</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.6805018510276399</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.5383928905084331</v>
+        <v>-0.538392890508433</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6111234265737664</v>
+        <v>-0.6007356649761548</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7118232505295071</v>
+        <v>-0.7392173933455012</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6429381130159808</v>
+        <v>-0.6514051186947903</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.8179801278348279</v>
+        <v>-0.8187099497215201</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8415139743242016</v>
+        <v>-0.8372002276509224</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7553467362822952</v>
+        <v>-0.7820647353724098</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7204410162711716</v>
+        <v>-0.7171807051345078</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7818842416938889</v>
+        <v>-0.7760697890344791</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6885904672613234</v>
+        <v>-0.6806235167293776</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2643106802764034</v>
+        <v>0.412383827239243</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.05425880431367169</v>
+        <v>-0.003426663108888739</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.585767939150583</v>
+        <v>0.5768389113051632</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.5387342317913378</v>
+        <v>-0.5310236891965889</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.5955999893738019</v>
+        <v>-0.608186120794464</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.3967152947890253</v>
+        <v>-0.4244691477370444</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.4320822989188444</v>
+        <v>-0.432239742579229</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.5421314187706681</v>
+        <v>-0.5517914590383589</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.2872406279401314</v>
+        <v>-0.3061739788720403</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.257014942779435</v>
+        <v>-4.328620888066867</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.761974202094947</v>
+        <v>-3.708101541044253</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.148951241255681</v>
+        <v>-4.156343034291513</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.079877518281994</v>
+        <v>-3.155730140050291</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.935421362430898</v>
+        <v>-3.027680040512229</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.032870964140609</v>
+        <v>-3.994979634009566</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.297659316175912</v>
+        <v>-3.32413178751988</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.918250883208476</v>
+        <v>-3.001245288912065</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.571459705994606</v>
+        <v>-3.612926710313937</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.655914231415951</v>
+        <v>-1.554597843160821</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.8514759411021372</v>
+        <v>-0.773126171005299</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.323112236241594</v>
+        <v>-1.293019061436642</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.2286907268888274</v>
+        <v>-0.3434454293013637</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.1050271985176194</v>
+        <v>0.1643249399481197</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-1.549946075396389</v>
+        <v>-1.590907455766471</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-1.31903367723446</v>
+        <v>-1.290651302120866</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.9010031374262536</v>
+        <v>-0.9496606896725962</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-1.803607469107109</v>
+        <v>-1.791143824776066</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.4434208443104056</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.776367074848156</v>
+        <v>-0.7763670748481559</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.6174637647519337</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.9006066735062939</v>
+        <v>-0.9060357210855244</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7914309733626511</v>
+        <v>-0.7859154222086959</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.8796238927529323</v>
+        <v>-0.8772731095659227</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.7172069882896689</v>
+        <v>-0.7207385181585274</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6657693537594307</v>
+        <v>-0.693650676699739</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8949071997738954</v>
+        <v>-0.8865834872714662</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7748540920808973</v>
+        <v>-0.7763754844944851</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6745894311950383</v>
+        <v>-0.6945263009838125</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.8585791626722856</v>
+        <v>-0.8505927356710138</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.4689983046248937</v>
+        <v>-0.4890915854334955</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.2303852066942726</v>
+        <v>-0.229199586706173</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.3572521029030852</v>
+        <v>-0.3365912290533311</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.07520733458283434</v>
+        <v>-0.08662478420004054</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.007310099041510153</v>
+        <v>0.08380023504397761</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.5369517073925388</v>
+        <v>-0.5666564517871107</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.4121245004612876</v>
+        <v>-0.3888040155567818</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2577469380265834</v>
+        <v>-0.2816440264496932</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.5712876928844763</v>
+        <v>-0.5553571995495536</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.782051859427995</v>
+        <v>-1.906635188270718</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.238371533694613</v>
+        <v>-2.19337243727465</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.894115930410171</v>
+        <v>-2.872176235104441</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.842740733971441</v>
+        <v>-3.774675539756695</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.956259315866019</v>
+        <v>-2.806176266731831</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.470584098396302</v>
+        <v>-3.475091748526402</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.296554365002931</v>
+        <v>-2.303899013458664</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.112392100095894</v>
+        <v>-2.046588745964229</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.67244954840071</v>
+        <v>-2.659859439454366</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4843953220334335</v>
+        <v>0.3322495611463993</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06297440481691713</v>
+        <v>-0.04191901687006701</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.09346672587664</v>
+        <v>-1.071762947251392</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-1.311891381076244</v>
+        <v>-1.335349092610414</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1231678297046647</v>
+        <v>0.21914596842145</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.9995405374902228</v>
+        <v>-0.9950415253830441</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.6406807952155866</v>
+        <v>-0.6900648249034603</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.3088642135531725</v>
+        <v>-0.3532175045667488</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-1.213057508124631</v>
+        <v>-1.242990799942165</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7044402128004178</v>
+        <v>-0.7218879439615334</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8398182091604431</v>
+        <v>-0.8239531837171298</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.9248481525770706</v>
+        <v>-0.9183943557237196</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7257076105215596</v>
+        <v>-0.727946828117169</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.8393908317213478</v>
+        <v>-0.8292842010122891</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7775513679931431</v>
+        <v>-0.760764750022989</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7117437558635568</v>
+        <v>-0.6900474125808551</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.8622229162265699</v>
+        <v>-0.8706368402770741</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3769893851897742</v>
+        <v>0.3138430886159099</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.08290378385403271</v>
+        <v>0.1143336968466215</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.7194742252451594</v>
+        <v>-0.7160973318004091</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.4609154943453743</v>
+        <v>-0.4708296967969441</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1747686980943863</v>
+        <v>0.1055984168199869</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.4058946688193467</v>
+        <v>-0.3988093647074648</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.2843963089129545</v>
+        <v>-0.3079146148352051</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.1429619190653545</v>
+        <v>-0.1327208231771379</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.5827174992466693</v>
+        <v>-0.6144616748443027</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.967731294511281</v>
+        <v>-3.8859457770932</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.696306215431583</v>
+        <v>-4.596331756609568</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.101872132029773</v>
+        <v>-4.100907747990895</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.804911873260758</v>
+        <v>-5.673962070279965</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.762315029560729</v>
+        <v>-3.577179004956653</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.288059904999924</v>
+        <v>-5.102724381922498</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.017952931588233</v>
+        <v>-3.822726965592116</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.222239515087538</v>
+        <v>-3.222414322105145</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.82481048747451</v>
+        <v>-3.851387231908085</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07016214217171692</v>
+        <v>0.1738604967116782</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.8738476859608139</v>
+        <v>-0.9546100772278172</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.3528476388840817</v>
+        <v>-0.2368832267252377</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-1.041485705142329</v>
+        <v>-0.9465496272531713</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.572156428164279</v>
+        <v>1.813471770035483</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.037857020823613</v>
+        <v>-0.9141516476632019</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.9723230404952192</v>
+        <v>-0.8523372855648127</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.2087957736701823</v>
+        <v>-0.167718565724043</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.9940104303700457</v>
+        <v>-1.036923574900004</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.9046314241209606</v>
+        <v>-0.9095560958440722</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.8347306024492925</v>
+        <v>-0.8531886256955082</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.9508669695119319</v>
+        <v>-0.9413183691674949</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6786221735381925</v>
+        <v>-0.6620717294096988</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8842563254387302</v>
+        <v>-0.8779616774066983</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.8771558920582897</v>
+        <v>-0.8662343488545151</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.7408712766094876</v>
+        <v>-0.756674004778639</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.8204942903309902</v>
+        <v>-0.8139999821740099</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.246835374805898</v>
+        <v>0.4206383019346069</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.3278929379144812</v>
+        <v>-0.2214432500564142</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.135976942595127</v>
+        <v>-0.06368960103140409</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.2789539183068097</v>
+        <v>-0.2213574508934062</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7120319708842464</v>
+        <v>0.7855204225310836</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.3884170924935395</v>
+        <v>-0.3375951869068753</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.326409289043791</v>
+        <v>-0.305332373370039</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.06404781654931238</v>
+        <v>-0.03913926044864208</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.4184187325129143</v>
+        <v>-0.4061891893707564</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.102743375410149</v>
+        <v>-2.06817180358446</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.344183511115942</v>
+        <v>-2.341332725416193</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.692584648985744</v>
+        <v>-2.595483174168709</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.068887902501038</v>
+        <v>-3.942333219466432</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.588220985451664</v>
+        <v>-3.442537439588903</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.271957169002429</v>
+        <v>-4.338564103477595</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.847947805669833</v>
+        <v>-2.861301893824214</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.710660303358353</v>
+        <v>-2.692278519596421</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.192789958241724</v>
+        <v>-3.204764287423904</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.6357041941535391</v>
+        <v>-0.5753424647084429</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.9085074798870685</v>
+        <v>-0.9401271127278482</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.199916152959857</v>
+        <v>-1.224255537561439</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-2.295185309231953</v>
+        <v>-2.284746085234861</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.78278543114068</v>
+        <v>-1.681502719938215</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-2.668746567442093</v>
+        <v>-2.688040570904327</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-1.696376879115068</v>
+        <v>-1.727772720228486</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-1.525072878279957</v>
+        <v>-1.545352025639605</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-2.151336453217238</v>
+        <v>-2.174884843501358</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6122945768192857</v>
+        <v>-0.6128981783187307</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6867179404118993</v>
+        <v>-0.6862417951382244</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.766502680593071</v>
+        <v>-0.7634763042022708</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.7575398558499919</v>
+        <v>-0.7541378640200506</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6755329574780041</v>
+        <v>-0.6546496826400047</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.8015806603829483</v>
+        <v>-0.7953399700338362</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.6734471411967585</v>
+        <v>-0.6669290083400785</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.6372831271413284</v>
+        <v>-0.63524799708475</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.762130490779108</v>
+        <v>-0.7591579042140904</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.2263364098336619</v>
+        <v>-0.2217053188519918</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.3491611937937303</v>
+        <v>-0.3615163443018217</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.4624993725387508</v>
+        <v>-0.4705589316403778</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.5314267142430518</v>
+        <v>-0.5455550628204172</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.4169227146090996</v>
+        <v>-0.3939641022095614</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.639359527927102</v>
+        <v>-0.6357045655164542</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.4816981147718656</v>
+        <v>-0.480587610810723</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.4278963843943863</v>
+        <v>-0.4302483770524548</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.6126712740994916</v>
+        <v>-0.6105985703352388</v>
       </c>
     </row>
     <row r="34">
